--- a/biology/Histoire de la zoologie et de la botanique/James_Drummond_(botaniste)/James_Drummond_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Drummond_(botaniste)/James_Drummond_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Drummond, né à Inverarity en  janvier 1787 et mort à Hawthornden (Toodyay), le 26 mars 1863, est un botaniste, naturaliste et explorateur britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conservateur des jardins botaniques d'Irlande, il se rend en Australie-Occidentale en 1829 et y devient surveillant des jardins du gouvernement. Il explore les parages de l'Avon et la Toodyay valley de 1836 à 1838 puis en 1839 l'île de Rottnest, de 1841 à 1844, les plaines de Victoria, en 1844, le Lac Walyormouring et en 1850-1851 le fleuve Murchinson, en quête de nombreuses variétés botaniques[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conservateur des jardins botaniques d'Irlande, il se rend en Australie-Occidentale en 1829 et y devient surveillant des jardins du gouvernement. Il explore les parages de l'Avon et la Toodyay valley de 1836 à 1838 puis en 1839 l'île de Rottnest, de 1841 à 1844, les plaines de Victoria, en 1844, le Lac Walyormouring et en 1850-1851 le fleuve Murchinson, en quête de nombreuses variétés botaniques. 
 En 1840, il est le premier à alerter le gouvernement sur le danger de la pollution des usines toxiques pour la nature. 
-Jules Verne le mentionne dans son roman Les Enfants du capitaine Grant (partie 2, chapitre XVIII)[2]. 
+Jules Verne le mentionne dans son roman Les Enfants du capitaine Grant (partie 2, chapitre XVIII). 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Héritage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">James Drummond est l'auteur de plusieurs espèces végétales :
 Boronia molloyae Tall Boronia
@@ -557,7 +573,7 @@
 Hakea victoria, Royal Hakea
 Macropidia fumosa, J. Drumm. ex Harv., 1855
 Verticordia grandis, Scarlet Featherflower
-Et, au moins, un genre Lepilaena, J. Drumm. ex Harv., 1855[3]
+Et, au moins, un genre Lepilaena, J. Drumm. ex Harv., 1855
 </t>
         </is>
       </c>
